--- a/data/output/Pedido_Semana_06_13022026_vivero.xlsx
+++ b/data/output/Pedido_Semana_06_13022026_vivero.xlsx
@@ -1537,7 +1537,7 @@
         <v>2</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="6" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="1">
       <c r="A16" s="2" t="inlineStr">
         <is>
           <t>8104140003</t>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="M16" s="6" t="n">
-        <v>25.5</v>
+        <v>0</v>
       </c>
       <c r="N16" s="4" t="n">
-        <v>15.3</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="inlineStr">
         <is>
@@ -1794,10 +1794,10 @@
         </is>
       </c>
       <c r="P16" s="3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="U16" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" hidden="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
           <t>8104220004</t>
@@ -1864,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="M17" s="6" t="n">
-        <v>48.45</v>
+        <v>0</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>29.07</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="inlineStr">
         <is>
@@ -1875,10 +1875,10 @@
         </is>
       </c>
       <c r="P17" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R17" s="2" t="n">
         <v>0</v>
@@ -1890,10 +1890,10 @@
         <v>1</v>
       </c>
       <c r="U17" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" hidden="1">
       <c r="A18" s="2" t="inlineStr">
         <is>
           <t>8201070001</t>
@@ -1945,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>35.33</v>
+        <v>0</v>
       </c>
       <c r="N18" s="4" t="n">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="inlineStr">
         <is>
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="P18" s="3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="U18" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" hidden="1">
       <c r="A19" s="2" t="inlineStr">
         <is>
           <t>8501040001</t>
@@ -2023,13 +2023,13 @@
         <v>1</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>83.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="N19" s="4" t="n">
-        <v>50.04</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="inlineStr">
         <is>
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="P19" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R19" s="2" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="U19" s="8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" hidden="1">
       <c r="A20" s="2" t="inlineStr">
         <is>
           <t>8501040001</t>
@@ -2107,10 +2107,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="6" t="n">
-        <v>75.25</v>
+        <v>0</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>45.15</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="inlineStr">
         <is>
@@ -2118,10 +2118,10 @@
         </is>
       </c>
       <c r="P20" s="3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2347,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="6" t="n">
         <v>0</v>
@@ -2674,10 +2674,10 @@
         <v>0</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>113.85</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="N27" s="4" t="n">
-        <v>68.31</v>
+        <v>45.54</v>
       </c>
       <c r="O27" s="7" t="inlineStr">
         <is>
@@ -2685,10 +2685,10 @@
         </is>
       </c>
       <c r="P27" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R27" s="2" t="n">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -2784,7 +2784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="1">
       <c r="A29" s="2" t="inlineStr">
         <is>
           <t>8201070001</t>
@@ -2833,13 +2833,13 @@
         <v>1</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="6" t="n">
-        <v>46.25</v>
+        <v>0</v>
       </c>
       <c r="N29" s="4" t="n">
-        <v>27.75</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="inlineStr">
         <is>
@@ -2847,10 +2847,10 @@
         </is>
       </c>
       <c r="P29" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R29" s="2" t="n">
         <v>0</v>
@@ -2862,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="6" t="n">
         <v>27.1</v>
@@ -3027,7 +3027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="1">
       <c r="A32" s="2" t="inlineStr">
         <is>
           <t>8803010001</t>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="M32" s="6" t="n">
-        <v>11.62</v>
+        <v>0</v>
       </c>
       <c r="N32" s="4" t="n">
-        <v>6.97</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="inlineStr">
         <is>
@@ -3090,10 +3090,10 @@
         </is>
       </c>
       <c r="P32" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R32" s="2" t="n">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3157,7 +3157,7 @@
         <v>2</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="6" t="n">
         <v>173</v>
@@ -3241,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>64.88</v>
+        <v>43.25</v>
       </c>
       <c r="N34" s="4" t="n">
-        <v>38.93</v>
+        <v>25.95</v>
       </c>
       <c r="O34" s="7" t="inlineStr">
         <is>
@@ -3252,10 +3252,10 @@
         </is>
       </c>
       <c r="P34" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R34" s="2" t="n">
         <v>0</v>
@@ -3267,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="U34" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" hidden="1">
       <c r="A35" s="2" t="inlineStr">
         <is>
           <t>8401020030</t>
@@ -3319,13 +3319,13 @@
         <v>1</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>64.95</v>
+        <v>0</v>
       </c>
       <c r="N35" s="4" t="n">
-        <v>38.97</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="inlineStr">
         <is>
@@ -3333,10 +3333,10 @@
         </is>
       </c>
       <c r="P35" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q35" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R35" s="2" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="6" t="n">
-        <v>64.95</v>
+        <v>21.65</v>
       </c>
       <c r="N37" s="4" t="n">
-        <v>38.97</v>
+        <v>12.99</v>
       </c>
       <c r="O37" s="7" t="inlineStr">
         <is>
@@ -3495,10 +3495,10 @@
         </is>
       </c>
       <c r="P37" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R37" s="2" t="n">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="U37" s="8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" hidden="1">
@@ -3643,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="6" t="n">
         <v>42.6</v>
@@ -3724,7 +3724,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="6" t="n">
         <v>64.95</v>
@@ -3808,10 +3808,10 @@
         <v>0</v>
       </c>
       <c r="M41" s="6" t="n">
-        <v>58.35</v>
+        <v>19.45</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>35.01</v>
+        <v>11.67</v>
       </c>
       <c r="O41" s="7" t="inlineStr">
         <is>
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="P41" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q41" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R41" s="2" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="U41" s="8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" hidden="1">
@@ -4132,10 +4132,10 @@
         <v>0</v>
       </c>
       <c r="M45" s="6" t="n">
-        <v>113.5</v>
+        <v>56.75</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>68.09999999999999</v>
+        <v>34.05</v>
       </c>
       <c r="O45" s="7" t="inlineStr">
         <is>
@@ -4143,10 +4143,10 @@
         </is>
       </c>
       <c r="P45" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R45" s="2" t="n">
         <v>0</v>
@@ -4158,10 +4158,10 @@
         <v>0</v>
       </c>
       <c r="U45" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" hidden="1">
       <c r="A46" s="2" t="inlineStr">
         <is>
           <t>8201070004</t>
@@ -4213,10 +4213,10 @@
         <v>0</v>
       </c>
       <c r="M46" s="6" t="n">
-        <v>37.8</v>
+        <v>0</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>22.68</v>
+        <v>0</v>
       </c>
       <c r="O46" s="7" t="inlineStr">
         <is>
@@ -4224,10 +4224,10 @@
         </is>
       </c>
       <c r="P46" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q46" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R46" s="2" t="n">
         <v>0</v>
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="U46" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -4338,7 +4338,7 @@
         </is>
       </c>
       <c r="C50" s="5" t="n">
-        <v>95</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="C52" s="5" t="inlineStr">
         <is>
-          <t>1871.24€</t>
+          <t>1244.16€</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
         </is>
       </c>
       <c r="C61" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
